--- a/2спринт/Проект второго спринта Филипчик Павел.xlsx
+++ b/2спринт/Проект второго спринта Филипчик Павел.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\Y.Routes\2спринт\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yandex.Student\Y.Routes\2спринт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A533D8-A531-4A08-A0F6-5BDF1AD6D863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178C0FAF-F696-4501-8DD4-1FC66B619E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1. Конфигурации браузер" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="160">
   <si>
     <t>Конфигурации браузеров, ОС и разрешений</t>
   </si>
@@ -104,32 +104,6 @@
     <t>bug-111</t>
   </si>
   <si>
-    <t>Отображение в маршрутной панели</t>
-  </si>
-  <si>
-    <t>Открыть сайт https://yandex.ru/metro/moscow</t>
-  </si>
-  <si>
-    <t>Выбрать станцию «Студенческая» на схеме</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В маршрутной панели отображается подробный маршрут между выбранными станциями:
-● Время в пути и количество пересадок
-● Список станций посадки, высадки и пересадок
-● Вагоны, удобные для посадки
-● Кнопка «Получить ссылку на маршрут»
-</t>
-  </si>
-  <si>
-    <t>Google Chrome не ниже версии 72, Yandex.Browser не ниже 18.1.0</t>
-  </si>
-  <si>
-    <t>bug-112</t>
-  </si>
-  <si>
-    <t>Выбрать станцию «Шаболовская» на схеме</t>
-  </si>
-  <si>
     <t>MacOS1014</t>
   </si>
   <si>
@@ -211,9 +185,6 @@
     <t>Проверка текста названия полей для времени на орфографические ошибки</t>
   </si>
   <si>
-    <t>Название поля сооветвует логике, в поле можно вводить только цифры</t>
-  </si>
-  <si>
     <t>Введенные данные в поле ввода времени не касаются границ поля</t>
   </si>
   <si>
@@ -236,15 +207,6 @@
   </si>
   <si>
     <t>Поле выбора транспорта</t>
-  </si>
-  <si>
-    <t>Текст сообщения об ошибке поля ввода минут белого цвета в красном сгруленном прямоугольнике, не закрывает поле, "Вы ввели некорректное время"</t>
-  </si>
-  <si>
-    <t>Текст сообщения об ошибке поля ввода времени белого цвета в красном сгруленном прямоугольнике, не закрывает поле, "Вы ввели некорректное время"</t>
-  </si>
-  <si>
-    <t>Текст собщения об ошибке полей "откуда" и "куда"  белого цвета в красном сгруленном прямоугольнике, не закрывает поле, "Вы ввели некорректный адрес"</t>
   </si>
   <si>
     <t>Поле выбора режима находится под полем "куда", отображается полностью</t>
@@ -371,18 +333,6 @@
     <t>При вводе корректных данных в поля ввода времени и адреса и выборе режима "оптимальный"  вид транспорта выбирается автоматически, на карте строится маршрут, отрисовываются точки А и Б, выводится время и стоимость поездки, кнопки на панели выбора транспорта некликабельны</t>
   </si>
   <si>
-    <t>При вводе корректных данных в поля ввода времени и адреса и выборе режима  или "быстрый" вид транспорта выбирается автоматически, на карте строится маршрут, отрисовываются точки А и Б, выводится время и стоимость поездки, кнопки на панели выбора транспорта некликабельны</t>
-  </si>
-  <si>
-    <t>При вводе корректных данных в поля ввода времени и адреса и выборе режима "свой" и выбора вида транспорта "собственное авто", на карте строится маршрут, отрисовываются точки А и Б, выводится время и стоимость поездки</t>
-  </si>
-  <si>
-    <t>При вводе корректных данных в поля ввода времени и адреса и выборе режима "свой" и выбора вида транспорта "пешком", на карте строится маршрут, отрисовываются точки А и Б, выводится время и стоимость поездки (бесплатно)</t>
-  </si>
-  <si>
-    <t>При вводе корректных данных в поля ввода времени и адреса и выборе режима "свой" и выбора вида транспорта "такси", на карте строится маршрут, отрисовываются точки А и Б, выводится время и стоимость поездки, появляется кнопка вызова такси</t>
-  </si>
-  <si>
     <t>При нажатии на кнопку вызова такси переход на страницу Яндекс.Такси</t>
   </si>
   <si>
@@ -404,24 +354,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>При построении маршрута на автомобилях маршрут на карте строится сплошной фиолетовой линией, а дополнительный маршрут, если он есть, серой сполной линией, при клике на дополнительный маршрут он становится фиолетовым, а основной серым.</t>
-  </si>
-  <si>
-    <t>При построении маршрута по пешеходных дорогам линия маршрута на карте строится пунктирной фиолетовой линией, а дополнительный маршрут, если он есть, серой пунктирной  линией, при клике на дополнительный маршрут он становится фиолетовым, а основной серым.</t>
-  </si>
-  <si>
-    <t>При вводе корректных данных в поля ввода времени и адреса и выборе режима "свой" и выбора вида транспорта "шеринг велосипедов", на карте строится маршрут, отрисовываются точки А и В, выводится время и стоимость поездки</t>
-  </si>
-  <si>
-    <t>При вводе корректных данных в поля ввода времени и адреса и выборе режима "свой" и выбора вида транспорта ""шеринг самокатов", на карте строится маршрут, отрисовываются точки А и В, выводится время и стоимость поездки</t>
-  </si>
-  <si>
-    <t>При вводе корректных данных в поля ввода времени и адреса и выборе режима "свой" и выбора вида транспорта "каршеринг", на карте строится маршрут, отрисовываются точки А и В, выводится время и стоимость поездки</t>
-  </si>
-  <si>
-    <t>При построении маршрута на карте ставятся две точки , А (зависит от поля "Откуда") и В (зависит от поля "Куда"), перемещать точки нельзя</t>
-  </si>
-  <si>
     <t>Маршрут невозможно построить с помощью карты, при клике на карту точки маршрута не ставятся.</t>
   </si>
   <si>
@@ -444,13 +376,151 @@
   </si>
   <si>
     <t>При вводе данных в поле "Куда"  плейсхолдер исчезает</t>
+  </si>
+  <si>
+    <t>Текст сообщения об ошибке поля ввода времени белого цвета в красном сгруленном прямоугольнике, не закрывает поле</t>
+  </si>
+  <si>
+    <t>Текст собщения об ошибке полей "откуда" и "куда"  белого цвета в красном сгруленном прямоугольнике, не закрывает поле</t>
+  </si>
+  <si>
+    <t>При вводе корректных данных в поля ввода времени и адреса и выборе режима "свой" и выбора вида транспорта "такси", на карте строится маршрут, отрисовываются точки А и Б, появляется кнопка вызова такси</t>
+  </si>
+  <si>
+    <t>При вводе корректных данных в поля ввода времени и адреса и выборе режима "свой" и выбора вида транспорта "пешком", на карте строится маршрут, отрисовываются точки А и Б</t>
+  </si>
+  <si>
+    <t>При вводе корректных данных в поля ввода времени и адреса и выборе режима "свой" и выбора вида транспорта "собственное авто", на карте строится маршрут, отрисовываются точки А и Б</t>
+  </si>
+  <si>
+    <t>При вводе корректных данных в поля ввода времени и адреса и выборе режима  или "быстрый" вид транспорта выбирается автоматически, на карте строится маршрут, отрисовываются точки А и Б,  выводится время и стоимость поездки, кнопки на панели выбора транспорта некликабельны</t>
+  </si>
+  <si>
+    <t>При вводе корректных данных в поля ввода времени и адреса и выборе режима "свой" и выбора вида транспорта "шеринг велосипедов", на карте строится маршрут, отрисовываются точки А и В</t>
+  </si>
+  <si>
+    <t>При вводе корректных данных в поля ввода времени и адреса и выборе режима "свой" и выбора вида транспорта ""шеринг самокатов", на карте строится маршрут, отрисовываются точки А и В</t>
+  </si>
+  <si>
+    <t>При вводе корректных данных в поля ввода времени и адреса и выборе режима "свой" и выбора вида транспорта "каршеринг", на карте строится маршрут, отрисовываются точки А и В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус Яндекс
+800х600 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус Firefox
+1280х720
+</t>
+  </si>
+  <si>
+    <t>YR001</t>
+  </si>
+  <si>
+    <t>Расчет времени и стоимости поездки пешком</t>
+  </si>
+  <si>
+    <t>Открой сайт: https://qa-routes.praktikum-services.ru/</t>
+  </si>
+  <si>
+    <t>Введи время поездки 07:55</t>
+  </si>
+  <si>
+    <t>В поле откуда введи "Зубовский бульвар, 37"</t>
+  </si>
+  <si>
+    <t>В поле куда введи  "Фрунзенская набережная, 46"</t>
+  </si>
+  <si>
+    <t>Выбери режим свой</t>
+  </si>
+  <si>
+    <t>Выбери транспорт "пешком"</t>
+  </si>
+  <si>
+    <t>Расчет времени и стоимости поездки на личном авто</t>
+  </si>
+  <si>
+    <t>В поле откуда введи "Комсомольский проспект, 18"</t>
+  </si>
+  <si>
+    <t>В поле куда введи  "3-я Фрунзенская улица, 12"</t>
+  </si>
+  <si>
+    <t>Цвет точки "откуда" красный</t>
+  </si>
+  <si>
+    <t>Цвет точки "куда" синий</t>
+  </si>
+  <si>
+    <t>Карта</t>
+  </si>
+  <si>
+    <t>При корректном заполнении полей ввода на карте ставятся две точки , А (зависит от поля "Откуда") и В (зависит от поля "Куда"), перемещать точки нельзя, между точками рисуется основной маршрут и дополнительный (если есть).</t>
+  </si>
+  <si>
+    <t>Основной маршрут по пешеходным дорогам строится фиолетовой пунктирной линией, дополнительный машрут серой пунктиной илнией</t>
+  </si>
+  <si>
+    <t>Основной маршрут по автомобильным дорогам строится фиолетовой сплошной линией, дополнительный маршрут серой сплошной линией</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Слева от поля "Куда" точка (круг) синего цвета </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Слева от поля "Откуда" точка (круг) красного цвета </t>
+  </si>
+  <si>
+    <t>Введи время поездки 23:30</t>
+  </si>
+  <si>
+    <t>Выбери транспорт "такси"</t>
+  </si>
+  <si>
+    <t>По клику на дополнительный маршрут он становится основным</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стоимость поездки и время поездки  рассчитано и отображается </t>
+  </si>
+  <si>
+    <t>Стоимость поездки и время поездки  рассчитано отображается</t>
+  </si>
+  <si>
+    <t>Яндекс.Браузер, разрешение экрана 800х600</t>
+  </si>
+  <si>
+    <t>Выбери транспорт "авто"</t>
+  </si>
+  <si>
+    <t>Расчет времени и стоимости поездки на такси</t>
+  </si>
+  <si>
+    <t>Расчет времени и стоимости поездки на шеринге самокатов</t>
+  </si>
+  <si>
+    <t>Расчет времени и стоимости поездки шеринге велосипедов</t>
+  </si>
+  <si>
+    <t>Расчет времени и стоимости поездки каршеринге</t>
+  </si>
+  <si>
+    <t>Выбери транспорт "каршеринг"</t>
+  </si>
+  <si>
+    <t>Выбери транспорт "шеринг велосипедов"</t>
+  </si>
+  <si>
+    <t>Выбери транспорт "шеринг самокатов"</t>
+  </si>
+  <si>
+    <t>При некорректном заполнении поля (любого) оно выделяется красным цветом</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -485,11 +555,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -503,6 +568,36 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -603,35 +698,35 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -672,75 +767,98 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,13 +966,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5162550</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>6791552</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>19097</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1142,21 +1260,21 @@
       <selection activeCell="A3" sqref="A3:A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1170,605 +1288,605 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D3" s="7">
         <v>19201080</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
         <v>800600</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
         <v>19201080</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D6" s="7">
         <v>1280720</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="17">
+      <c r="B7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="16">
         <v>19201080</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="B8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="16">
         <v>800600</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="17">
+      <c r="B9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="16">
         <v>1280720</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>800600</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="B11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="16">
         <v>1280720</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="17">
+      <c r="B12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="16">
         <v>1280720</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="17">
+      <c r="B13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="16">
         <v>1280720</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="17">
+      <c r="B14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="16">
         <v>800600</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="17">
+      <c r="B15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="16">
         <v>800600</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="17">
+      <c r="B16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="16">
         <v>19201080</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="17">
+      <c r="B17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="16">
         <v>1280720</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="17">
+      <c r="B18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="16">
         <v>800600</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="17">
+      <c r="B19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="16">
         <v>1280720</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="17">
+      <c r="B20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="16">
         <v>19201080</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="17">
+      <c r="B21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="16">
         <v>800600</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="17">
+      <c r="B22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="16">
         <v>19201080</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="17">
+      <c r="B23" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="16">
         <v>800600</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="17">
+      <c r="B24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="16">
         <v>19201080</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="17">
+      <c r="B25" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="16">
         <v>1280720</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="17">
+      <c r="C26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="16">
         <v>800600</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="17">
+      <c r="B27" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="16">
         <v>800600</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="17">
+      <c r="B28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="16">
         <v>1280720</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="17">
+      <c r="D29" s="16">
         <v>19201080</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="17">
+      <c r="B30" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="16">
         <v>800600</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="17">
+      <c r="B31" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="16">
         <v>19201080</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="17">
+      <c r="B32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="16">
         <v>19201080</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="17">
+      <c r="B33" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="16">
         <v>19201080</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="17">
+      <c r="B34" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="16">
         <v>800600</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="17">
+      <c r="B35" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="16">
         <v>19201080</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="17">
+      <c r="B36" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="16">
         <v>19201080</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="17">
+      <c r="B37" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="16">
         <v>1280720</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="17">
+      <c r="B38" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="16">
         <v>1280720</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="17">
+      <c r="B39" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="16">
         <v>1280720</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="17">
+      <c r="B40" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="16">
         <v>1280720</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="B41" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="17">
+      <c r="B41" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="16">
         <v>800600</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="17">
+      <c r="B42" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="16">
         <v>19201080</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="B43" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="17">
+      <c r="B43" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="16">
         <v>1280720</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="17">
+      <c r="B44" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="16">
         <v>1280720</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="B45" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="17">
+      <c r="B45" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="16">
         <v>800600</v>
       </c>
     </row>
@@ -1786,7 +1904,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1797,59 +1915,65 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="0" style="16" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
     <col min="4" max="4" width="126" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="32" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="5"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="5"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -1857,12 +1981,13 @@
       <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3">
         <v>2</v>
       </c>
@@ -1872,471 +1997,997 @@
       <c r="E5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3">
         <v>3</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="31" t="s">
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" s="16" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" s="16" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="31">
+        <v>1</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:12" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="34">
+        <v>2</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="1:12" ht="79.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="34">
+        <v>3</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="31">
+        <v>4</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="35"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="36"/>
+      <c r="C12" s="34">
+        <v>5</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="1:12" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="36"/>
+      <c r="C13" s="34">
+        <v>6</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="36"/>
+      <c r="C14" s="31">
+        <v>7</v>
+      </c>
+      <c r="D14" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="1:11" s="17" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23" t="s">
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:12" s="20" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="36"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="1:12" s="16" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="36"/>
+      <c r="C16" s="34">
+        <v>8</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="1:7" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="34">
+        <v>9</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+    </row>
+    <row r="18" spans="1:7" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="36"/>
+      <c r="C18" s="31">
+        <v>10</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="1:7" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="36"/>
+      <c r="C19" s="34">
+        <v>11</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="1:7" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="36"/>
+      <c r="C20" s="34">
+        <v>12</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="1:7" s="20" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="36"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="1:7" s="20" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="36"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="1:7" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="31">
+        <v>13</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="36"/>
+      <c r="C24" s="34">
+        <v>14</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="36"/>
+      <c r="C25" s="34">
+        <v>15</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="1:7" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="36"/>
+      <c r="C26" s="31">
+        <v>16</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="34">
+        <v>17</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+    </row>
+    <row r="28" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="36"/>
+      <c r="C28" s="34">
+        <v>18</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+    </row>
+    <row r="29" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="36"/>
+      <c r="C29" s="31">
+        <v>19</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+    </row>
+    <row r="30" spans="1:7" s="19" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="34">
+        <v>20</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+    </row>
+    <row r="31" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="36"/>
+      <c r="C31" s="34">
+        <v>21</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+    </row>
+    <row r="32" spans="1:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="36"/>
+      <c r="C32" s="31">
+        <v>22</v>
+      </c>
+      <c r="D32" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:11" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="24" t="s">
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+    </row>
+    <row r="33" spans="2:7" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="36"/>
+      <c r="C33" s="34">
+        <v>23</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+    </row>
+    <row r="34" spans="2:7" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="36"/>
+      <c r="C34" s="34">
+        <v>24</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+    </row>
+    <row r="35" spans="2:7" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="36"/>
+      <c r="C35" s="31">
+        <v>25</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+    </row>
+    <row r="36" spans="2:7" s="20" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="31"/>
+      <c r="D36" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+    </row>
+    <row r="37" spans="2:7" s="20" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="36"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="2:7" s="20" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="36"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+    </row>
+    <row r="39" spans="2:7" s="20" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="36"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+    </row>
+    <row r="40" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="34">
+        <v>26</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="36"/>
+      <c r="C41" s="34">
+        <v>27</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="36"/>
+      <c r="C42" s="31">
+        <v>28</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+    </row>
+    <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="36"/>
+      <c r="C43" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="40"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+    </row>
+    <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="41">
+        <v>29</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+    </row>
+    <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="41">
+        <v>30</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+    </row>
+    <row r="46" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="41">
+        <v>31</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+    </row>
+    <row r="47" spans="2:7" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="36"/>
+      <c r="C47" s="41">
+        <v>32</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+    </row>
+    <row r="48" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="36"/>
+      <c r="C48" s="41">
+        <v>33</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+    </row>
+    <row r="49" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="36"/>
+      <c r="C49" s="41">
+        <v>34</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+    </row>
+    <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="36"/>
+      <c r="C50" s="41">
+        <v>35</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+    </row>
+    <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="36"/>
+      <c r="C51" s="41">
+        <v>36</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+    </row>
+    <row r="52" spans="2:7" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="36"/>
+      <c r="C52" s="41">
+        <v>37</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+    </row>
+    <row r="53" spans="2:7" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="36"/>
+      <c r="C53" s="41">
+        <v>38</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+    </row>
+    <row r="54" spans="2:7" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="36"/>
+      <c r="C54" s="41">
+        <v>39</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+    </row>
+    <row r="55" spans="2:7" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="36"/>
+      <c r="C55" s="41">
+        <v>40</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+    </row>
+    <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="41">
+        <v>41</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+    </row>
+    <row r="57" spans="2:7" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="36"/>
+      <c r="C57" s="41">
+        <v>42</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+    </row>
+    <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="36"/>
+      <c r="C58" s="41">
+        <v>43</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+    </row>
+    <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="36"/>
+      <c r="C59" s="41">
+        <v>44</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+    </row>
+    <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="36"/>
+      <c r="C60" s="41">
+        <v>45</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+    </row>
+    <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="36"/>
+      <c r="C61" s="41">
+        <v>46</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+    </row>
+    <row r="62" spans="2:7" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="36"/>
+      <c r="C62" s="41">
+        <v>47</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+    </row>
+    <row r="63" spans="2:7" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="36"/>
+      <c r="C63" s="41">
+        <v>48</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+    </row>
+    <row r="64" spans="2:7" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="36"/>
+      <c r="C64" s="41">
+        <v>49</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+    </row>
+    <row r="65" spans="2:7" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="36"/>
+      <c r="C65" s="41">
+        <v>50</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+    </row>
+    <row r="66" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="41">
+        <v>51</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+    </row>
+    <row r="67" spans="2:7" s="17" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="33"/>
+      <c r="C67" s="41">
+        <v>52</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+    </row>
+    <row r="68" spans="2:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="36"/>
+      <c r="C68" s="41">
+        <v>53</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+    </row>
+    <row r="69" spans="2:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="36"/>
+      <c r="C69" s="41">
+        <v>54</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+    </row>
+    <row r="70" spans="2:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="36"/>
+      <c r="C70" s="41">
         <v>55</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="17" t="s">
+      <c r="D70" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+    </row>
+    <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="36"/>
+      <c r="C71" s="41">
         <v>56</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="3"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="17" t="s">
+      <c r="D71" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+    </row>
+    <row r="72" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="36"/>
+      <c r="C72" s="41">
         <v>57</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="7" t="s">
+      <c r="D72" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+    </row>
+    <row r="73" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="36"/>
+      <c r="C73" s="41">
+        <v>58</v>
+      </c>
+      <c r="D73" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+    </row>
+    <row r="74" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="36"/>
+      <c r="C74" s="41">
+        <v>59</v>
+      </c>
+      <c r="D74" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+    </row>
+    <row r="75" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" s="41">
+        <v>60</v>
+      </c>
+      <c r="D75" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+    </row>
+    <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="36"/>
+      <c r="C76" s="41">
+        <v>61</v>
+      </c>
+      <c r="D76" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+    </row>
+    <row r="77" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="36"/>
+      <c r="C77" s="41">
         <v>62</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="17" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="21" t="s">
+      <c r="D77" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+    </row>
+    <row r="78" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" s="41">
+        <v>63</v>
+      </c>
+      <c r="D78" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="E78" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+    </row>
+    <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="36"/>
+      <c r="C79" s="41">
+        <v>66</v>
+      </c>
+      <c r="D79" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+    </row>
+    <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="36"/>
+      <c r="C80" s="41">
+        <v>67</v>
+      </c>
+      <c r="D80" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+    </row>
+    <row r="81" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="36"/>
+      <c r="C81" s="41">
+        <v>68</v>
+      </c>
+      <c r="D81" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+    </row>
+    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="36"/>
+      <c r="C82" s="41">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" s="17" customFormat="1" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="17" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D29" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="27" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D32" s="28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" s="18" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D34" s="27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" s="18" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D35" s="27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D37" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D38" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="31"/>
-    </row>
-    <row r="40" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D44" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D45" s="21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D46" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D47" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D48" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="18" t="s">
+      <c r="D82" s="38" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D53" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D54" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D55" s="21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D56" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D57" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D58" s="47" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D59" s="46" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D60" s="47" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D61" s="46" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" s="18" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="27"/>
-      <c r="D63" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D64" s="21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D65" s="21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D66" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D67" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D68" s="21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D69" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D70" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D71" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D72" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D73" s="21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D74" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E74" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D75" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D76" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D77" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D78" s="21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D79" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D80" s="21" t="s">
-        <v>130</v>
-      </c>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+    </row>
+    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="50"/>
+      <c r="D83" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2349,41 +3000,42 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
-    <col min="5" max="5" width="44.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
-    <col min="11" max="11" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="11" max="11" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-    </row>
-    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -2415,197 +3067,535 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
-        <v>1</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>26</v>
+    <row r="4" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>128</v>
       </c>
       <c r="D4" s="15">
         <v>1</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="43">
+      <c r="E4" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="15">
         <v>2</v>
       </c>
-      <c r="E5" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-    </row>
-    <row r="8" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="33">
-        <v>2</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="E5" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="15">
+        <v>3</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="15">
+        <v>4</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+    </row>
+    <row r="8" spans="1:10" s="17" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="15">
+        <v>5</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>128</v>
+      </c>
       <c r="D9" s="15">
         <v>1</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
+      <c r="E9" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="15">
         <v>2</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="E10" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="15">
         <v>3</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
+      <c r="E11" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="15">
         <v>4</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-    </row>
-    <row r="13" spans="1:11" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-    </row>
-    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+      <c r="E12" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="15">
+        <v>5</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>128</v>
+      </c>
       <c r="D14" s="15">
+        <v>1</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="15">
+        <v>3</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="15">
+        <v>4</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="15">
         <v>5</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
+      <c r="E18" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="15">
+        <v>2</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="15">
+        <v>3</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="15">
+        <v>4</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="15">
+        <v>5</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="15">
+        <v>1</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="15">
+        <v>2</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="15">
+        <v>3</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="15">
+        <v>4</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="15">
+        <v>5</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="15">
+        <v>1</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="15">
+        <v>2</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="15">
+        <v>3</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="15">
+        <v>4</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="15">
+        <v>5</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="48"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="27"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="27"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="27"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="27"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="48"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="27"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="27"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="27"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
+  <mergeCells count="36">
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="H4:H8"/>
     <mergeCell ref="I4:I8"/>
     <mergeCell ref="J4:J8"/>
-    <mergeCell ref="A1:J1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="F4:F8"/>
     <mergeCell ref="G4:G8"/>
-    <mergeCell ref="H4:H8"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2621,31 +3611,31 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
     <col min="2" max="2" width="126" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2659,7 +3649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2674,7 +3664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2691,7 +3681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2699,7 +3689,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2707,7 +3697,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>

--- a/2спринт/Проект второго спринта Филипчик Павел.xlsx
+++ b/2спринт/Проект второго спринта Филипчик Павел.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yandex.Student\Y.Routes\2спринт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80CDB2B-AA7D-4EFE-9204-59596609C363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5418C058-F1C1-423D-A2A6-1A1D1EC8346A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="188">
   <si>
     <t>Конфигурации браузеров, ОС и разрешений</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Результат</t>
-  </si>
-  <si>
-    <t>bug-111</t>
   </si>
   <si>
     <t>MacOS1014</t>
@@ -333,9 +330,6 @@
     <t>карта</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Маршрут невозможно построить с помощью карты, при клике на карту точки маршрута не ставятся.</t>
   </si>
   <si>
@@ -480,14 +474,6 @@
     <t>При некорректном заполнении поля часов и\или минут оно выделяется красным цветом</t>
   </si>
   <si>
-    <t>ID Баг- репорта
-Яндекс</t>
-  </si>
-  <si>
-    <t>ID Баг- репорта
-Firefox</t>
-  </si>
-  <si>
     <t>SKIPPED</t>
   </si>
   <si>
@@ -567,13 +553,59 @@
   </si>
   <si>
     <t>Стоимость поездки и время поездки  рассчитано отображается, название транспорта соответсвует выбранному</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID Баг- репорта
+</t>
+  </si>
+  <si>
+    <t>BUG-47635</t>
+  </si>
+  <si>
+    <t>BUG-47636</t>
+  </si>
+  <si>
+    <t>BUG-47637</t>
+  </si>
+  <si>
+    <t>BUG-47638</t>
+  </si>
+  <si>
+    <t>BUG-47642</t>
+  </si>
+  <si>
+    <t>BUG-47646</t>
+  </si>
+  <si>
+    <t>BUG-47651</t>
+  </si>
+  <si>
+    <t>BUG-47654</t>
+  </si>
+  <si>
+    <t>BUG-47655</t>
+  </si>
+  <si>
+    <t>BUG-47659</t>
+  </si>
+  <si>
+    <t>BUG-47662</t>
+  </si>
+  <si>
+    <t>BUG-47667</t>
+  </si>
+  <si>
+    <t>BUG-47663</t>
+  </si>
+  <si>
+    <t>При длинном значении времени и стоимости поездки оно не должно выходить за границы элементы, размер элемента не изменяется, текст не обрезается многоточием, а переносится</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -678,6 +710,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -717,7 +757,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -775,22 +815,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -870,9 +899,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -880,6 +906,50 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -893,85 +963,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -991,17 +1029,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1539,7 +1566,7 @@
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A45"/>
     </sheetView>
   </sheetViews>
@@ -1550,12 +1577,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1576,10 +1603,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="D3" s="7">
         <v>19201080</v>
@@ -1590,10 +1617,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="7">
         <v>800600</v>
@@ -1604,10 +1631,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="D5" s="7">
         <v>19201080</v>
@@ -1618,10 +1645,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
         <v>1280720</v>
@@ -1632,10 +1659,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="12">
         <v>19201080</v>
@@ -1646,10 +1673,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="D8" s="12">
         <v>800600</v>
@@ -1660,10 +1687,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="12">
         <v>1280720</v>
@@ -1674,10 +1701,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="12">
         <v>800600</v>
@@ -1688,10 +1715,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="12">
         <v>1280720</v>
@@ -1702,10 +1729,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="12">
         <v>1280720</v>
@@ -1716,10 +1743,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="12">
         <v>1280720</v>
@@ -1730,10 +1757,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="12">
         <v>800600</v>
@@ -1744,10 +1771,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="12">
         <v>800600</v>
@@ -1758,10 +1785,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="12">
         <v>19201080</v>
@@ -1772,10 +1799,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="12">
         <v>1280720</v>
@@ -1786,10 +1813,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="12">
         <v>800600</v>
@@ -1800,10 +1827,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="12">
         <v>1280720</v>
@@ -1814,10 +1841,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="12">
         <v>19201080</v>
@@ -1828,10 +1855,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="12">
         <v>800600</v>
@@ -1842,10 +1869,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="12">
         <v>19201080</v>
@@ -1856,10 +1883,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="12">
         <v>800600</v>
@@ -1870,10 +1897,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="12">
         <v>19201080</v>
@@ -1884,10 +1911,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="12">
         <v>1280720</v>
@@ -1898,10 +1925,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="12">
         <v>800600</v>
@@ -1912,10 +1939,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="12">
         <v>800600</v>
@@ -1926,10 +1953,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="12">
         <v>1280720</v>
@@ -1940,10 +1967,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" s="12">
         <v>19201080</v>
@@ -1954,10 +1981,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="12">
         <v>800600</v>
@@ -1968,10 +1995,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="12">
         <v>19201080</v>
@@ -1982,10 +2009,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" s="12">
         <v>19201080</v>
@@ -1996,10 +2023,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="12">
         <v>19201080</v>
@@ -2010,10 +2037,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="12">
         <v>800600</v>
@@ -2024,10 +2051,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35" s="12">
         <v>19201080</v>
@@ -2038,10 +2065,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36" s="12">
         <v>19201080</v>
@@ -2052,10 +2079,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" s="12">
         <v>1280720</v>
@@ -2066,10 +2093,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38" s="12">
         <v>1280720</v>
@@ -2080,10 +2107,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="12">
         <v>1280720</v>
@@ -2094,10 +2121,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D40" s="12">
         <v>1280720</v>
@@ -2108,10 +2135,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41" s="12">
         <v>800600</v>
@@ -2122,10 +2149,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="12">
         <v>19201080</v>
@@ -2136,10 +2163,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="12">
         <v>1280720</v>
@@ -2150,10 +2177,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44" s="12">
         <v>1280720</v>
@@ -2164,10 +2191,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45" s="12">
         <v>800600</v>
@@ -2198,10 +2225,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F85"/>
+    <sheetView tabSelected="1" topLeftCell="B32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F43" sqref="E8:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2212,35 +2239,33 @@
     <col min="4" max="4" width="126" customWidth="1"/>
     <col min="5" max="5" width="17.109375" customWidth="1"/>
     <col min="6" max="6" width="17.109375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="36" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
-    <col min="9" max="9" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="35" customWidth="1"/>
+    <col min="8" max="8" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -2249,19 +2274,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -2271,12 +2293,11 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3">
         <v>2</v>
       </c>
@@ -2288,154 +2309,147 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3">
         <v>3</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" s="12" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+    </row>
+    <row r="7" spans="1:12" s="12" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:13" s="12" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" s="12" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="20">
         <v>1</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="23">
         <v>2</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="1:13" ht="79.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="79.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="23">
         <v>3</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="20">
         <v>4</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="25"/>
       <c r="C12" s="23">
         <v>5</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="25"/>
-    </row>
-    <row r="13" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="25"/>
       <c r="C13" s="23">
         <v>6</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="49" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="31"/>
-      <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="25"/>
       <c r="C14" s="20">
         <v>7</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>10</v>
@@ -2443,16 +2457,17 @@
       <c r="F14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:13" s="16" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="16" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25"/>
       <c r="C15" s="23">
         <v>8</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>10</v>
@@ -2461,15 +2476,14 @@
         <v>10</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-    </row>
-    <row r="16" spans="1:13" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="25"/>
       <c r="C16" s="23">
         <v>9</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>18</v>
@@ -2477,18 +2491,19 @@
       <c r="F16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-    </row>
-    <row r="17" spans="1:8" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="20">
         <v>10</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>10</v>
@@ -2497,15 +2512,14 @@
         <v>10</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="1:8" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="25"/>
       <c r="C18" s="23">
         <v>11</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>10</v>
@@ -2514,15 +2528,14 @@
         <v>10</v>
       </c>
       <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-    </row>
-    <row r="19" spans="1:8" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="25"/>
       <c r="C19" s="23">
         <v>12</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="29" t="s">
         <v>10</v>
@@ -2530,16 +2543,17 @@
       <c r="F19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-    </row>
-    <row r="20" spans="1:8" s="36" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="35" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="25"/>
       <c r="C20" s="20">
         <v>13</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E20" s="29" t="s">
         <v>10</v>
@@ -2548,15 +2562,14 @@
         <v>10</v>
       </c>
       <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-    </row>
-    <row r="21" spans="1:8" s="12" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="25"/>
       <c r="C21" s="23">
         <v>14</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>18</v>
@@ -2564,16 +2577,17 @@
       <c r="F21" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-    </row>
-    <row r="22" spans="1:8" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="25"/>
       <c r="C22" s="23">
         <v>15</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E22" s="29" t="s">
         <v>18</v>
@@ -2581,16 +2595,17 @@
       <c r="F22" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-    </row>
-    <row r="23" spans="1:8" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="25"/>
       <c r="C23" s="20">
         <v>16</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>18</v>
@@ -2598,18 +2613,19 @@
       <c r="F23" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-    </row>
-    <row r="24" spans="1:8" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="23">
         <v>17</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="29" t="s">
         <v>10</v>
@@ -2618,15 +2634,14 @@
         <v>10</v>
       </c>
       <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="25"/>
       <c r="C25" s="23">
         <v>18</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="29" t="s">
         <v>10</v>
@@ -2635,15 +2650,14 @@
         <v>10</v>
       </c>
       <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-    </row>
-    <row r="26" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="25"/>
       <c r="C26" s="20">
         <v>19</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>10</v>
@@ -2652,15 +2666,14 @@
         <v>10</v>
       </c>
       <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-    </row>
-    <row r="27" spans="1:8" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="25"/>
       <c r="C27" s="23">
         <v>20</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" s="29" t="s">
         <v>10</v>
@@ -2669,17 +2682,16 @@
         <v>10</v>
       </c>
       <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-    </row>
-    <row r="28" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="23">
         <v>21</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>10</v>
@@ -2688,15 +2700,14 @@
         <v>10</v>
       </c>
       <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-    </row>
-    <row r="29" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="25"/>
       <c r="C29" s="20">
         <v>22</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>18</v>
@@ -2704,16 +2715,17 @@
       <c r="F29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-    </row>
-    <row r="30" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="25"/>
       <c r="C30" s="23">
         <v>23</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>10</v>
@@ -2722,37 +2734,35 @@
         <v>10</v>
       </c>
       <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-    </row>
-    <row r="31" spans="1:8" s="15" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" s="15" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>65</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>66</v>
       </c>
       <c r="C31" s="20">
         <v>24</v>
       </c>
-      <c r="D31" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="68" t="s">
+      <c r="D31" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="51" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-    </row>
-    <row r="32" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="25"/>
       <c r="C32" s="23">
         <v>25</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>10</v>
@@ -2761,15 +2771,14 @@
         <v>10</v>
       </c>
       <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-    </row>
-    <row r="33" spans="2:8" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="25"/>
       <c r="C33" s="20">
         <v>26</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>18</v>
@@ -2777,33 +2786,33 @@
       <c r="F33" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-    </row>
-    <row r="34" spans="2:8" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="25"/>
       <c r="C34" s="23">
         <v>27</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-    </row>
-    <row r="35" spans="2:8" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:7" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="25"/>
       <c r="C35" s="20">
         <v>28</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" s="29" t="s">
         <v>18</v>
@@ -2811,16 +2820,17 @@
       <c r="F35" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-    </row>
-    <row r="36" spans="2:8" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="25"/>
       <c r="C36" s="23">
         <v>29</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E36" s="29" t="s">
         <v>18</v>
@@ -2828,18 +2838,19 @@
       <c r="F36" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-    </row>
-    <row r="37" spans="2:8" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C37" s="20">
         <v>30</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>10</v>
@@ -2848,15 +2859,14 @@
         <v>10</v>
       </c>
       <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-    </row>
-    <row r="38" spans="2:8" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:7" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="25"/>
       <c r="C38" s="23">
         <v>31</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E38" s="29" t="s">
         <v>10</v>
@@ -2865,15 +2875,14 @@
         <v>10</v>
       </c>
       <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-    </row>
-    <row r="39" spans="2:8" s="16" customFormat="1" ht="166.8" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:7" s="16" customFormat="1" ht="166.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="25"/>
       <c r="C39" s="20">
         <v>32</v>
       </c>
-      <c r="D39" s="45" t="s">
-        <v>157</v>
+      <c r="D39" s="37" t="s">
+        <v>153</v>
       </c>
       <c r="E39" s="29" t="s">
         <v>10</v>
@@ -2882,15 +2891,14 @@
         <v>10</v>
       </c>
       <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-    </row>
-    <row r="40" spans="2:8" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:7" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="25"/>
       <c r="C40" s="23">
         <v>33</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E40" s="29" t="s">
         <v>10</v>
@@ -2899,17 +2907,16 @@
         <v>10</v>
       </c>
       <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-    </row>
-    <row r="41" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="20">
         <v>34</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" s="29" t="s">
         <v>10</v>
@@ -2918,32 +2925,30 @@
         <v>10</v>
       </c>
       <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-    </row>
-    <row r="42" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="25"/>
       <c r="C42" s="23">
         <v>35</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F42" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-    </row>
-    <row r="43" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="25"/>
       <c r="C43" s="20">
         <v>36</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E43" s="29" t="s">
         <v>10</v>
@@ -2952,651 +2957,714 @@
         <v>10</v>
       </c>
       <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-    </row>
-    <row r="44" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="25"/>
-      <c r="C44" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
+      <c r="C44" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="56"/>
+      <c r="E44" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>114</v>
+      </c>
       <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-    </row>
-    <row r="45" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="29">
         <v>37</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="29"/>
+        <v>75</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F45" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-    </row>
-    <row r="46" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="29">
         <v>38</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="29"/>
+        <v>86</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F46" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-    </row>
-    <row r="47" spans="2:8" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="25"/>
       <c r="C47" s="29">
         <v>39</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="29"/>
+        <v>87</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F47" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-    </row>
-    <row r="48" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="25"/>
       <c r="C48" s="29">
         <v>40</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" s="29"/>
+        <v>76</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F48" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-    </row>
-    <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="25"/>
       <c r="C49" s="29">
         <v>41</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E49" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F49" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-    </row>
-    <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="25"/>
       <c r="C50" s="29">
         <v>42</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E50" s="29"/>
+        <v>78</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F50" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-    </row>
-    <row r="51" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="25"/>
       <c r="C51" s="29">
         <v>43</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E51" s="29"/>
+        <v>78</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F51" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-    </row>
-    <row r="52" spans="2:8" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G51" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="25"/>
       <c r="C52" s="29">
         <v>44</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E52" s="29"/>
+        <v>89</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F52" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-    </row>
-    <row r="53" spans="2:8" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="25"/>
       <c r="C53" s="29">
         <v>45</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E53" s="29"/>
+        <v>90</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F53" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-    </row>
-    <row r="54" spans="2:8" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="25"/>
       <c r="C54" s="29">
         <v>46</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="29"/>
+        <v>91</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F54" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-    </row>
-    <row r="55" spans="2:8" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="25"/>
       <c r="C55" s="29">
         <v>47</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E55" s="29"/>
+        <v>92</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F55" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-    </row>
-    <row r="56" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="29">
         <v>48</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56" s="29"/>
+        <v>81</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F56" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-    </row>
-    <row r="57" spans="2:8" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G56" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="25"/>
       <c r="C57" s="29">
         <v>49</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" s="29"/>
+        <v>80</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F57" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-    </row>
-    <row r="58" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="25"/>
       <c r="C58" s="29">
         <v>50</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E58" s="29"/>
+        <v>82</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F58" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-    </row>
-    <row r="59" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="25"/>
       <c r="C59" s="29">
         <v>51</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E59" s="29"/>
+        <v>83</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F59" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-    </row>
-    <row r="60" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="25"/>
       <c r="C60" s="29">
         <v>52</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E60" s="29"/>
+        <v>84</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F60" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-    </row>
-    <row r="61" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G60" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="25"/>
       <c r="C61" s="29">
         <v>53</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" s="29"/>
+        <v>85</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F61" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-    </row>
-    <row r="62" spans="2:8" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G61" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="25"/>
       <c r="C62" s="29">
         <v>54</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="E62" s="29"/>
+        <v>101</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F62" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-    </row>
-    <row r="63" spans="2:8" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="2:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="25"/>
       <c r="C63" s="29">
         <v>55</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="E63" s="29"/>
+        <v>102</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F63" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-    </row>
-    <row r="64" spans="2:8" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="2:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="25"/>
       <c r="C64" s="29">
         <v>56</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="E64" s="29"/>
+        <v>103</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F64" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-    </row>
-    <row r="65" spans="2:8" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="2:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="25"/>
       <c r="C65" s="29">
         <v>57</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E65" s="29"/>
+        <v>104</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F65" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-    </row>
-    <row r="66" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C66" s="29">
         <v>58</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E66" s="29"/>
+        <v>93</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F66" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-    </row>
-    <row r="67" spans="2:8" s="13" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="2:7" s="13" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="22"/>
       <c r="C67" s="29">
         <v>59</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E67" s="29"/>
+        <v>110</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F67" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-    </row>
-    <row r="68" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="25"/>
       <c r="C68" s="29">
         <v>60</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E68" s="29"/>
+        <v>109</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F68" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-    </row>
-    <row r="69" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="2:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="25"/>
       <c r="C69" s="29">
         <v>61</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E69" s="29"/>
+        <v>108</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F69" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-    </row>
-    <row r="70" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="25"/>
       <c r="C70" s="29">
         <v>62</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="E70" s="29"/>
+        <v>107</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F70" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-    </row>
-    <row r="71" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G70" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="25"/>
       <c r="C71" s="29">
         <v>63</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E71" s="29"/>
+        <v>94</v>
+      </c>
+      <c r="E71" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F71" s="29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-    </row>
-    <row r="72" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="25"/>
       <c r="C72" s="29">
         <v>64</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E72" s="29"/>
+        <v>111</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F72" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-    </row>
-    <row r="73" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="25"/>
       <c r="C73" s="29">
         <v>65</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E73" s="29"/>
+        <v>112</v>
+      </c>
+      <c r="E73" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F73" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-    </row>
-    <row r="74" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="25"/>
       <c r="C74" s="29">
         <v>66</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E74" s="29"/>
+        <v>113</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F74" s="29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-    </row>
-    <row r="75" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C75" s="29">
         <v>67</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E75" s="29"/>
+        <v>96</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F75" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-    </row>
-    <row r="76" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G75" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="25"/>
       <c r="C76" s="29">
         <v>68</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="E76" s="29"/>
+        <v>161</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F76" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-    </row>
-    <row r="77" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="25"/>
       <c r="C77" s="29">
         <v>69</v>
       </c>
       <c r="D77" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="25"/>
+    </row>
+    <row r="78" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="25" t="s">
         <v>98</v>
-      </c>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-    </row>
-    <row r="78" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="25" t="s">
-        <v>99</v>
       </c>
       <c r="C78" s="29">
         <v>70</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-    </row>
-    <row r="79" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="25"/>
       <c r="C79" s="29">
         <v>71</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E79" s="29"/>
+        <v>99</v>
+      </c>
+      <c r="E79" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F79" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-    </row>
-    <row r="80" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="25"/>
       <c r="C80" s="29">
         <v>72</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="E80" s="29"/>
+        <v>150</v>
+      </c>
+      <c r="E80" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F80" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-    </row>
-    <row r="81" spans="2:8" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="2:7" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="25"/>
       <c r="C81" s="29">
         <v>73</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="E81" s="29"/>
+        <v>151</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F81" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
-    </row>
-    <row r="82" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="25"/>
       <c r="C82" s="29">
         <v>74</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="E82" s="29"/>
+        <v>152</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F82" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-    </row>
-    <row r="83" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="25"/>
       <c r="C83" s="29">
         <v>75</v>
       </c>
       <c r="D83" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E83" s="29"/>
+        <v>100</v>
+      </c>
+      <c r="E83" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="F83" s="29" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
-    </row>
-    <row r="84" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="25"/>
       <c r="C84" s="29">
         <v>76</v>
       </c>
-      <c r="D84" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E84" s="69"/>
-      <c r="F84" s="33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D84" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E84" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="F84" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="25"/>
+    </row>
+    <row r="85" spans="2:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="25"/>
       <c r="C85" s="29">
         <v>77</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="F85" s="29" t="s">
         <v>18</v>
       </c>
+      <c r="G85" s="25" t="s">
+        <v>186</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="C44:D44"/>
   </mergeCells>
-  <conditionalFormatting sqref="E8:F85">
+  <conditionalFormatting sqref="E8:F43 E45:F85">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
@@ -3617,8 +3685,8 @@
   </sheetPr>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F4:F23"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3634,660 +3702,655 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="I3" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="46" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="D4" s="38">
+        <v>1</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="F4" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="57"/>
+      <c r="I4" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="57"/>
+    </row>
+    <row r="5" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="38">
+        <v>2</v>
+      </c>
+      <c r="E5" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="47">
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="58"/>
+    </row>
+    <row r="6" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="67"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="38">
+        <v>3</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="58"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="67"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="38">
+        <v>4</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="58"/>
+    </row>
+    <row r="8" spans="1:10" s="13" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="67"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="38">
+        <v>5</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="58"/>
+    </row>
+    <row r="9" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="38">
         <v>1</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E9" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="57"/>
+      <c r="I9" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="57"/>
+    </row>
+    <row r="10" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="66"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="38">
+        <v>2</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="58"/>
+    </row>
+    <row r="11" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="66"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="38">
+        <v>3</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="58"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="66"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="38">
+        <v>4</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="58"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="66"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="38">
+        <v>5</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="58"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="38">
+        <v>1</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="57"/>
+      <c r="I14" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="57"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="67"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="38">
+        <v>2</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="58"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="67"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="38">
+        <v>3</v>
+      </c>
+      <c r="E16" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="50"/>
-    </row>
-    <row r="5" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="47">
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="58"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="67"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="38">
+        <v>4</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="58"/>
+    </row>
+    <row r="18" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="67"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="38">
+        <v>5</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="58"/>
+    </row>
+    <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="38">
+        <v>1</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" s="57"/>
+      <c r="I19" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="57"/>
+    </row>
+    <row r="20" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="66"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="38">
         <v>2</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E20" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="58"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="66"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="38">
+        <v>3</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="58"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="66"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="38">
+        <v>4</v>
+      </c>
+      <c r="E22" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="52"/>
-    </row>
-    <row r="6" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="47">
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="58"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="66"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="38">
+        <v>5</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="58"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="38">
+        <v>1</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="57"/>
+      <c r="I24" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="57"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="67"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="38">
+        <v>2</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="58"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="67"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="38">
         <v>3</v>
       </c>
-      <c r="E6" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="52"/>
-    </row>
-    <row r="7" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="47">
+      <c r="E26" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="58"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="67"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="38">
         <v>4</v>
       </c>
-      <c r="E7" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="52"/>
-    </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="47">
+      <c r="E27" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="58"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="67"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="38">
         <v>5</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E28" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="58"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="38">
+        <v>1</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="57"/>
+      <c r="I29" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="J29" s="57"/>
+    </row>
+    <row r="30" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="66"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="38">
+        <v>2</v>
+      </c>
+      <c r="E30" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="52"/>
-    </row>
-    <row r="9" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="46" t="s">
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="66"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="38">
+        <v>3</v>
+      </c>
+      <c r="E31" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="47">
-        <v>1</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="50"/>
-    </row>
-    <row r="10" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="47">
-        <v>2</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="52"/>
-    </row>
-    <row r="11" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="47">
-        <v>3</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="52"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="47">
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="66"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="38">
         <v>4</v>
       </c>
-      <c r="E12" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="52"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="47">
+      <c r="E32" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="66"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="38">
         <v>5</v>
       </c>
-      <c r="E13" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="52"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" s="46" t="s">
+      <c r="E33" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="47">
-        <v>1</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="50"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="47">
-        <v>2</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="52"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="47">
-        <v>3</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="52"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="47">
-        <v>4</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="52"/>
-    </row>
-    <row r="18" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="47">
-        <v>5</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="52"/>
-    </row>
-    <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="47">
-        <v>1</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="H19" s="50"/>
-      <c r="I19" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="50"/>
-    </row>
-    <row r="20" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="47">
-        <v>2</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="52"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="47">
-        <v>3</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="52"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="47">
-        <v>4</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="52"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="47">
-        <v>5</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="52"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="47">
-        <v>1</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="50"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="47">
-        <v>2</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="52"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="47">
-        <v>3</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="52"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="47">
-        <v>4</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="52"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="47">
-        <v>5</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="52"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="47">
-        <v>1</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="G29" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="H29" s="50"/>
-      <c r="I29" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="J29" s="50"/>
-    </row>
-    <row r="30" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="47">
-        <v>2</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="47">
-        <v>3</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="47">
-        <v>4</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="47">
-        <v>5</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="43"/>
+      <c r="G34" s="62"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="42"/>
+      <c r="G35" s="63"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="42"/>
+      <c r="G36" s="63"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="42"/>
+      <c r="G37" s="63"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="42"/>
+      <c r="G38" s="63"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="43"/>
+      <c r="G39" s="62"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="42"/>
+      <c r="G40" s="63"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="42"/>
+      <c r="G41" s="63"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G42" s="42"/>
+      <c r="G42" s="63"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G43" s="42"/>
+      <c r="G43" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="J19:J23"/>
-    <mergeCell ref="J24:J28"/>
-    <mergeCell ref="J29:J33"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="A9:A13"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="C29:C33"/>
     <mergeCell ref="F29:F33"/>
@@ -4300,23 +4363,28 @@
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="C24:C28"/>
     <mergeCell ref="F24:F28"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="J29:J33"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4328,10 +4396,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4344,12 +4412,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -4367,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -4377,10 +4445,10 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3"/>
@@ -4390,10 +4458,10 @@
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3"/>
@@ -4403,10 +4471,10 @@
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
@@ -4415,10 +4483,10 @@
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="57" t="s">
+      <c r="B7" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3"/>
@@ -4427,37 +4495,51 @@
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="57" t="s">
+      <c r="B8" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53">
+      <c r="A9" s="40">
         <v>6</v>
       </c>
-      <c r="B9" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="53"/>
+      <c r="B9" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="40"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64">
+      <c r="A10" s="47">
         <v>7</v>
       </c>
-      <c r="B10" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="53"/>
+      <c r="B10" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="40"/>
+    </row>
+    <row r="11" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="69">
+        <v>8</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>181</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2спринт/Проект второго спринта Филипчик Павел.xlsx
+++ b/2спринт/Проект второго спринта Филипчик Павел.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yandex.Student\Y.Routes\2спринт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5418C058-F1C1-423D-A2A6-1A1D1EC8346A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC139E4A-8A05-44A3-9261-BAE7AFEBA8CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1. Конфигурации браузер" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="202">
   <si>
     <t>Конфигурации браузеров, ОС и разрешений</t>
   </si>
@@ -459,9 +459,6 @@
     <t>Расчет времени и стоимости поездки на шеринге самокатов</t>
   </si>
   <si>
-    <t>Выбери транспорт "каршеринг"</t>
-  </si>
-  <si>
     <t>Выбери транспорт "шеринг велосипедов"</t>
   </si>
   <si>
@@ -550,9 +547,6 @@
   </si>
   <si>
     <t>Проверка текста названия полей на орфографические ошибки</t>
-  </si>
-  <si>
-    <t>Стоимость поездки и время поездки  рассчитано отображается, название транспорта соответсвует выбранному</t>
   </si>
   <si>
     <t xml:space="preserve">ID Баг- репорта
@@ -599,13 +593,125 @@
   </si>
   <si>
     <t>При длинном значении времени и стоимости поездки оно не должно выходить за границы элементы, размер элемента не изменяется, текст не обрезается многоточием, а переносится</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>Выбери транспорт "каршеринг" (последняя иконка)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Стоимость поездки и время поездки выводится в формате </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Авто ~ [стоимость] руб.
+В пути [время поездки] мин</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.
+На карте строится маршрут из точки А в точку В фиолетовой сплошоной линией</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Стоимость поездки и время поездки выводится в формате </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Пешком ~ Бесплатно
+В пути [время поездки] мин.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+На карте строится маршрут из точки А в точку В фиолетовой пунктирной линией</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Стоимость поездки и время поездки выводится в формате Такси ~ [стоимость] руб.
+В пути [время поездки] мин., появляется кнопка "Вызвать такси"
+На карте строится маршрут из точки А в точку В фиолетовой сплошной линией
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стоимость поездки и время поездки выводится в формате Самокат ~ [стоимость] руб.
+В пути [время поездки] мин.,
+На карте строится маршрут из точки А в точку В фиолетовой пунктирной линией
+</t>
+  </si>
+  <si>
+    <t>Стоимость поездки и время поездки выводится в формате Велосипед ~ [стоимость] руб.
+В пути [время поездки] мин.,
+На карте строится маршрут из точки А в точку В фиолетовой пунктирной линией</t>
+  </si>
+  <si>
+    <t>YR007</t>
+  </si>
+  <si>
+    <t>YR008</t>
+  </si>
+  <si>
+    <t>Расчет времени и стоимости поездки в режиме "оптимальный"</t>
+  </si>
+  <si>
+    <t>Расчет времени и стоимости поездки в режиме "быстрый"</t>
+  </si>
+  <si>
+    <t>Выбери режим "быстрый"</t>
+  </si>
+  <si>
+    <t>Выбери режим "оптимальный"</t>
+  </si>
+  <si>
+    <t>Стоимость поездки и время поездки выводится в формате Каршеринг ~ [стоимость] руб.
+В пути [время поездки] мин.,
+На карте строится маршрут из точки А в точку В фиолетовой сплошной линией</t>
+  </si>
+  <si>
+    <t>Стоимость поездки и время поездки выводится в формате Каршеринг ~ [стоимость] руб.
+В пути [время поездки] мин.,
+На карте строится маршрут из точки А в точку В фиолетовой сплошной линией, кнопки выбора транспорта некликабельны</t>
+  </si>
+  <si>
+    <t>Стоимость поездки и время поездки выводится в формате Такси ~ [стоимость] руб.
+В пути [время поездки] мин.,
+На карте строится маршрут из точки А в точку В фиолетовой сплошной линией, появляется кнопка "вызвать такси", кнопки выбора транспорта некликабельны</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -718,8 +824,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -756,8 +870,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -792,15 +918,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -819,7 +936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -861,48 +978,48 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -938,17 +1055,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -960,7 +1098,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -971,40 +1109,33 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1577,12 +1708,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2227,8 +2358,8 @@
   </sheetPr>
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F43" sqref="E8:F43"/>
+    <sheetView topLeftCell="B14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2247,13 +2378,13 @@
       <c r="A1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -2280,7 +2411,7 @@
         <v>114</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2322,14 +2453,14 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:12" s="12" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
@@ -2370,7 +2501,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="79.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -2415,7 +2546,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E12" s="49" t="s">
         <v>18</v>
@@ -2424,7 +2555,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2458,7 +2589,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="16" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -2467,7 +2598,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>10</v>
@@ -2492,7 +2623,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2544,7 +2675,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="35" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2553,7 +2684,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E20" s="29" t="s">
         <v>10</v>
@@ -2578,7 +2709,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2596,7 +2727,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2614,7 +2745,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2715,8 +2846,8 @@
       <c r="F29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="25" t="s">
-        <v>179</v>
+      <c r="G29" s="31" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2786,8 +2917,8 @@
       <c r="F33" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="25" t="s">
-        <v>180</v>
+      <c r="G33" s="31" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="2:7" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2799,10 +2930,10 @@
         <v>68</v>
       </c>
       <c r="E34" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="29" t="s">
         <v>146</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>147</v>
       </c>
       <c r="G34" s="25"/>
     </row>
@@ -2821,7 +2952,7 @@
         <v>18</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="2:7" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2839,7 +2970,7 @@
         <v>18</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="2:7" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2882,7 +3013,7 @@
         <v>32</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E39" s="29" t="s">
         <v>10</v>
@@ -2932,10 +3063,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F42" s="29" t="s">
         <v>10</v>
@@ -2954,16 +3085,16 @@
         <v>10</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="G43" s="25"/>
     </row>
     <row r="44" spans="2:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="25"/>
-      <c r="C44" s="56" t="s">
+      <c r="C44" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="56"/>
+      <c r="D44" s="63"/>
       <c r="E44" s="18" t="s">
         <v>115</v>
       </c>
@@ -2983,7 +3114,7 @@
         <v>75</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F45" s="29" t="s">
         <v>10</v>
@@ -3001,7 +3132,7 @@
         <v>86</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F46" s="29" t="s">
         <v>10</v>
@@ -3017,7 +3148,7 @@
         <v>87</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F47" s="29" t="s">
         <v>10</v>
@@ -3033,7 +3164,7 @@
         <v>76</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F48" s="29" t="s">
         <v>10</v>
@@ -3049,7 +3180,7 @@
         <v>77</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F49" s="29" t="s">
         <v>10</v>
@@ -3065,13 +3196,13 @@
         <v>78</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F50" s="29" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3083,13 +3214,13 @@
         <v>78</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F51" s="29" t="s">
         <v>18</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="2:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3101,7 +3232,7 @@
         <v>89</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F52" s="29" t="s">
         <v>10</v>
@@ -3117,7 +3248,7 @@
         <v>90</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F53" s="29" t="s">
         <v>10</v>
@@ -3133,7 +3264,7 @@
         <v>91</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F54" s="29" t="s">
         <v>10</v>
@@ -3149,7 +3280,7 @@
         <v>92</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F55" s="29" t="s">
         <v>10</v>
@@ -3167,13 +3298,13 @@
         <v>81</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F56" s="29" t="s">
         <v>18</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="2:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3185,7 +3316,7 @@
         <v>80</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F57" s="29" t="s">
         <v>10</v>
@@ -3201,7 +3332,7 @@
         <v>82</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F58" s="29" t="s">
         <v>10</v>
@@ -3217,7 +3348,7 @@
         <v>83</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F59" s="29" t="s">
         <v>10</v>
@@ -3233,13 +3364,13 @@
         <v>84</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F60" s="29" t="s">
         <v>18</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3251,13 +3382,13 @@
         <v>85</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F61" s="29" t="s">
         <v>18</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="2:7" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3269,7 +3400,7 @@
         <v>101</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F62" s="29" t="s">
         <v>10</v>
@@ -3285,7 +3416,7 @@
         <v>102</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F63" s="29" t="s">
         <v>10</v>
@@ -3301,7 +3432,7 @@
         <v>103</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F64" s="29" t="s">
         <v>10</v>
@@ -3317,7 +3448,7 @@
         <v>104</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F65" s="29" t="s">
         <v>10</v>
@@ -3335,7 +3466,7 @@
         <v>93</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F66" s="29" t="s">
         <v>10</v>
@@ -3351,7 +3482,7 @@
         <v>110</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F67" s="29" t="s">
         <v>10</v>
@@ -3367,7 +3498,7 @@
         <v>109</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F68" s="29" t="s">
         <v>10</v>
@@ -3383,13 +3514,13 @@
         <v>108</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F69" s="29" t="s">
         <v>18</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3401,13 +3532,13 @@
         <v>107</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F70" s="29" t="s">
         <v>18</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3419,10 +3550,10 @@
         <v>94</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F71" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G71" s="25"/>
     </row>
@@ -3435,7 +3566,7 @@
         <v>111</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F72" s="29" t="s">
         <v>10</v>
@@ -3451,7 +3582,7 @@
         <v>112</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F73" s="29" t="s">
         <v>10</v>
@@ -3467,10 +3598,10 @@
         <v>113</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F74" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G74" s="25"/>
     </row>
@@ -3485,13 +3616,13 @@
         <v>96</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F75" s="29" t="s">
         <v>18</v>
       </c>
       <c r="G75" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3500,10 +3631,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F76" s="29" t="s">
         <v>10</v>
@@ -3519,7 +3650,7 @@
         <v>97</v>
       </c>
       <c r="E77" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F77" s="29" t="s">
         <v>10</v>
@@ -3537,7 +3668,7 @@
         <v>130</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>10</v>
@@ -3553,7 +3684,7 @@
         <v>99</v>
       </c>
       <c r="E79" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F79" s="29" t="s">
         <v>10</v>
@@ -3566,10 +3697,10 @@
         <v>72</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F80" s="29" t="s">
         <v>10</v>
@@ -3582,10 +3713,10 @@
         <v>73</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F81" s="29" t="s">
         <v>10</v>
@@ -3598,10 +3729,10 @@
         <v>74</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F82" s="29" t="s">
         <v>10</v>
@@ -3617,7 +3748,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F83" s="29" t="s">
         <v>10</v>
@@ -3633,9 +3764,9 @@
         <v>136</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="F84" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="F84" s="54" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="25"/>
@@ -3646,16 +3777,16 @@
         <v>77</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F85" s="29" t="s">
         <v>18</v>
       </c>
       <c r="G85" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3664,7 +3795,7 @@
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="C44:D44"/>
   </mergeCells>
-  <conditionalFormatting sqref="E8:F43 E45:F85">
+  <conditionalFormatting sqref="E45:F85 E8:F43">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
@@ -3683,10 +3814,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:F23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3695,25 +3826,25 @@
     <col min="2" max="2" width="41.109375" customWidth="1"/>
     <col min="3" max="3" width="45.6640625" customWidth="1"/>
     <col min="5" max="5" width="44.88671875" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1"/>
+    <col min="6" max="6" width="36.88671875" customWidth="1"/>
     <col min="7" max="7" width="16.5546875" customWidth="1"/>
     <col min="10" max="10" width="15.44140625" customWidth="1"/>
     <col min="11" max="11" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I2" s="6"/>
@@ -3751,13 +3882,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="69" t="s">
         <v>118</v>
       </c>
       <c r="D4" s="38">
@@ -3766,90 +3897,92 @@
       <c r="E4" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4" s="61" t="s">
+      <c r="F4" s="71" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="57"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="64" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="38">
         <v>2</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="58"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
       <c r="D6" s="38">
         <v>3</v>
       </c>
       <c r="E6" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="58"/>
-    </row>
-    <row r="7" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="65"/>
+    </row>
+    <row r="7" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="68"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="38">
         <v>4</v>
       </c>
       <c r="E7" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="58"/>
-    </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="65"/>
+    </row>
+    <row r="8" spans="1:10" s="13" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="38">
         <v>5</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="58"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="65"/>
     </row>
     <row r="9" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="64" t="s">
+      <c r="A9" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="69" t="s">
         <v>118</v>
       </c>
       <c r="D9" s="38">
@@ -3858,90 +3991,90 @@
       <c r="E9" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="F9" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G9" s="61" t="s">
+      <c r="F9" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="57"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="64"/>
     </row>
     <row r="10" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="38">
         <v>2</v>
       </c>
       <c r="E10" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="58"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="65"/>
     </row>
     <row r="11" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="38">
         <v>3</v>
       </c>
       <c r="E11" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="58"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="65"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="38">
         <v>4</v>
       </c>
       <c r="E12" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="58"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="65"/>
+    </row>
+    <row r="13" spans="1:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="72"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="38">
         <v>5</v>
       </c>
       <c r="E13" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="58"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="64" t="s">
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="65"/>
+    </row>
+    <row r="14" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="69" t="s">
         <v>118</v>
       </c>
       <c r="D14" s="38">
@@ -3950,90 +4083,92 @@
       <c r="E14" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" s="61" t="s">
+      <c r="F14" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="57"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="71" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="38">
         <v>2</v>
       </c>
       <c r="E15" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="58"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="65"/>
+    </row>
+    <row r="16" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="38">
         <v>3</v>
       </c>
       <c r="E16" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="58"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="38">
         <v>4</v>
       </c>
       <c r="E17" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="58"/>
-    </row>
-    <row r="18" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="65"/>
+    </row>
+    <row r="18" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="68"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="38">
         <v>5</v>
       </c>
       <c r="E18" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="58"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="64" t="s">
+      <c r="A19" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="69" t="s">
         <v>118</v>
       </c>
       <c r="D19" s="38">
@@ -4042,90 +4177,90 @@
       <c r="E19" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G19" s="61" t="s">
+      <c r="F19" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="H19" s="57"/>
-      <c r="I19" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="57"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="64"/>
     </row>
     <row r="20" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
       <c r="D20" s="38">
         <v>2</v>
       </c>
       <c r="E20" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="58"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="65"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="38">
         <v>3</v>
       </c>
       <c r="E21" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="58"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="65"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="66"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
       <c r="D22" s="38">
         <v>4</v>
       </c>
       <c r="E22" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="58"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="65"/>
+    </row>
+    <row r="23" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="72"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="38">
         <v>5</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="58"/>
+        <v>142</v>
+      </c>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="64" t="s">
+      <c r="A24" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="69" t="s">
         <v>118</v>
       </c>
       <c r="D24" s="38">
@@ -4134,90 +4269,90 @@
       <c r="E24" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" s="61" t="s">
+      <c r="F24" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="H24" s="57"/>
-      <c r="I24" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="57"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="64"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="38">
         <v>2</v>
       </c>
       <c r="E25" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="58"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="65"/>
+    </row>
+    <row r="26" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="68"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="38">
         <v>3</v>
       </c>
       <c r="E26" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="58"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="65"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
       <c r="D27" s="38">
         <v>4</v>
       </c>
       <c r="E27" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="58"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="65"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="38">
         <v>5</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="58"/>
+        <v>141</v>
+      </c>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="65"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="B29" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="69" t="s">
         <v>118</v>
       </c>
       <c r="D29" s="38">
@@ -4226,131 +4361,278 @@
       <c r="E29" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="F29" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="61" t="s">
+      <c r="F29" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="H29" s="57"/>
-      <c r="I29" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="J29" s="57"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="71" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="66"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="38">
         <v>2</v>
       </c>
       <c r="E30" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="38">
         <v>3</v>
       </c>
       <c r="E31" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="65"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="66"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
       <c r="D32" s="38">
         <v>4</v>
       </c>
       <c r="E32" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="66"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="65"/>
+    </row>
+    <row r="33" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="72"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="38">
         <v>5</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
+        <v>187</v>
+      </c>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="65"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="62"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="63"/>
+      <c r="A34" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="52">
+        <v>1</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="71" t="s">
+        <v>200</v>
+      </c>
+      <c r="G34" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" s="64"/>
+      <c r="I34" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="71" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="72"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="52">
+        <v>2</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="65"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="63"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="63"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="52">
+        <v>3</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="65"/>
+    </row>
+    <row r="37" spans="1:10" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="72"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="52">
+        <v>4</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="65"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="63"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="62"/>
+      <c r="A38" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="52">
+        <v>1</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="G38" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="64"/>
+      <c r="I38" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="71" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="68"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="52">
+        <v>2</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="65"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="63"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="63"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G42" s="63"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G43" s="63"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="52">
+        <v>3</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="65"/>
+    </row>
+    <row r="41" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="68"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="52">
+        <v>4</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="A9:A13"/>
+  <mergeCells count="65">
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="J29:J33"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="C29:C33"/>
     <mergeCell ref="F29:F33"/>
@@ -4363,31 +4645,27 @@
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="C24:C28"/>
     <mergeCell ref="F24:F28"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="J19:J23"/>
-    <mergeCell ref="J24:J28"/>
-    <mergeCell ref="J29:J33"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G8"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -4412,12 +4690,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -4435,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -4446,7 +4724,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>10</v>
@@ -4459,7 +4737,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="44" t="s">
         <v>10</v>
@@ -4472,7 +4750,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="44" t="s">
         <v>10</v>
@@ -4484,7 +4762,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="44" t="s">
         <v>10</v>
@@ -4496,7 +4774,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="44" t="s">
         <v>10</v>
@@ -4508,7 +4786,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>10</v>
@@ -4520,7 +4798,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>10</v>
@@ -4528,17 +4806,17 @@
       <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69">
+      <c r="A11" s="55">
         <v>8</v>
       </c>
-      <c r="B11" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="71" t="s">
+      <c r="B11" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="72" t="s">
-        <v>181</v>
+      <c r="D11" s="58" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
